--- a/regionseng/6/health care and social protection/health care and social protection.xlsx
+++ b/regionseng/6/health care and social protection/health care and social protection.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A887C90-E779-4774-B27C-D0E47970471C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="13635" yWindow="480" windowWidth="14490" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Number of hospital beds, thsd.</t>
   </si>
@@ -23,15 +24,6 @@
   </si>
   <si>
     <t>Number of visits in medical institutions rendering out-patient services to population (including prophylactics), thsd.</t>
-  </si>
-  <si>
-    <t>Number of registered, unit</t>
-  </si>
-  <si>
-    <t>Number of beneficiaries, unit</t>
-  </si>
-  <si>
-    <t>Number of Receivers, persons</t>
   </si>
   <si>
     <t>Public health and social protection in Imereti region</t>
@@ -42,36 +34,6 @@
   <si>
     <r>
       <t xml:space="preserve">Main characteristics of public health 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(end of  year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of Helpless Families Receiving Subsistence Allowance 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(end of  year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Persons Receiving Pension and Social Package 
 </t>
     </r>
     <r>
@@ -114,16 +76,58 @@
     <t>*  In 2012 the health care human resources definitions were revised and classified in accordance with International Standard Classification of Occupations (ISCO-08). 
 Data from 2020 is based on the new system of personalized accounting of health workers.</t>
   </si>
+  <si>
+    <t>Number of registered</t>
+  </si>
+  <si>
+    <t>Number of beneficiaries</t>
+  </si>
+  <si>
+    <t>Persons Receiving Pension</t>
+  </si>
+  <si>
+    <t>Persons Receiving Social Package</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of Helpless Families Receiving Subsistence Allowance  in Imereti region 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(end of  year, unit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Persons Receiving Pension and Social Package  in Imereti region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(end of  year, persons)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +184,12 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -233,67 +243,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,30 +293,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,6 +411,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -451,6 +463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +655,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -642,88 +667,94 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="18">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="13">
         <v>2008</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="13">
         <v>2009</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>2010</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="13">
         <v>2011</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>2012</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="13">
         <v>2013</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <v>2014</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="13">
         <v>2015</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="13">
         <v>2016</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="13">
         <v>2017</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="13">
         <v>2018</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="13">
         <v>2019</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="28">
         <v>2020</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="28">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="28">
+        <v>2022</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>2.8479999999999999</v>
@@ -758,19 +789,25 @@
       <c r="L5" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="16">
         <v>3.9820000000000002</v>
       </c>
-      <c r="N5" s="23">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="O5" s="38">
-        <v>2.2869999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="16">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O5" s="16">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="P5" s="16">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>2.7839999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>3.2010000000000001</v>
@@ -805,19 +842,25 @@
       <c r="L6" s="4">
         <v>2.5779999999999998</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="4">
         <v>2.87</v>
       </c>
-      <c r="N6" s="24">
-        <v>3.05</v>
+      <c r="N6" s="4">
+        <v>3.09</v>
       </c>
       <c r="O6" s="4">
-        <v>2.9140000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.964</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>35</v>
@@ -852,45 +895,51 @@
       <c r="L7" s="1">
         <v>38</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="17">
         <v>39</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="17">
         <v>40</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="17">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>2.5459999999999998</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>2.33</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>2.2090000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>2.149</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>1.752</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>1.7310000000000001</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>1.8</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>1.8</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>2.0430000000000001</v>
       </c>
       <c r="K8" s="4">
@@ -899,18 +948,24 @@
       <c r="L8" s="4">
         <v>2.391</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="4">
         <v>2.84</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="4">
         <v>3.4350000000000001</v>
       </c>
       <c r="O8" s="4">
         <v>3.7029999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="P8" s="4">
+        <v>3.004</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2.669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="5">
@@ -946,409 +1001,456 @@
       <c r="L9" s="1">
         <v>389</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="17">
         <v>385</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="17">
         <v>371</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="17">
+        <v>379</v>
+      </c>
+      <c r="P9" s="17">
         <v>376</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="Q9" s="17">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>1214.5940000000001</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <f>1101282/1000</f>
         <v>1101.2819999999999</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>1125.52</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>931.81600000000003</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>1243.6489999999999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>1390.8240000000001</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>1514.4</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>1506</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>1482.893</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>1455.4949999999999</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>1130.547</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="11">
         <v>1215.501</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="11">
         <v>996.87099999999998</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="11">
         <v>1164.8430000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="P10" s="11">
+        <v>1089.22</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1050.8800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="18">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13">
         <v>2008</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="13">
         <v>2009</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="13">
         <v>2010</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="13">
         <v>2011</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <v>2012</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="13">
         <v>2013</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="13">
         <v>2014</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="13">
         <v>2015</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <v>2016</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="13">
         <v>2017</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="13">
         <v>2018</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="13">
         <v>2019</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="13">
         <v>2020</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="28">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="P15" s="28">
+        <v>2022</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
         <v>96357</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>103206</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>105146</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>98590</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="12">
         <v>99309</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>97172</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="12">
         <v>95078</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="12">
         <v>89990</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="12">
         <v>69000</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="12">
         <v>58460</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="12">
         <v>56206</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="14">
         <v>52018</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="14">
         <v>54346</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="26">
         <v>56370</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="P16" s="26">
+        <v>58631</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>59032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
         <v>29056</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="10">
         <v>35469</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="10">
         <v>32434</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="10">
         <v>28270</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="10">
         <v>35578</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="10">
         <v>31000</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="10">
         <v>26791</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="10">
         <v>21664</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="10">
         <v>23177</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="10">
         <v>19103</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="10">
         <v>18015</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="11">
         <v>15555</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="11">
         <v>18988</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="27">
         <v>22589</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18">
-        <v>2008</v>
-      </c>
-      <c r="C20" s="18">
-        <v>2009</v>
-      </c>
-      <c r="D20" s="18">
-        <v>2010</v>
-      </c>
-      <c r="E20" s="18">
-        <v>2011</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="P17" s="27">
+        <v>17651</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>13199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="28">
         <v>2012</v>
       </c>
-      <c r="G20" s="18">
+      <c r="C20" s="28">
         <v>2013</v>
       </c>
-      <c r="H20" s="18">
+      <c r="D20" s="28">
         <v>2014</v>
       </c>
-      <c r="I20" s="18">
+      <c r="E20" s="28">
         <v>2015</v>
       </c>
-      <c r="J20" s="18">
+      <c r="F20" s="28">
         <v>2016</v>
       </c>
-      <c r="K20" s="19">
+      <c r="G20" s="28">
         <v>2017</v>
       </c>
-      <c r="L20" s="19">
+      <c r="H20" s="28">
         <v>2018</v>
       </c>
-      <c r="M20" s="19">
+      <c r="I20" s="28">
         <v>2019</v>
       </c>
-      <c r="N20" s="19">
+      <c r="J20" s="28">
         <v>2020</v>
       </c>
-      <c r="O20" s="36">
+      <c r="K20" s="28">
         <v>2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="17">
-        <v>158444</v>
-      </c>
-      <c r="C21" s="17">
-        <v>156039</v>
-      </c>
-      <c r="D21" s="17">
-        <v>153684</v>
-      </c>
-      <c r="E21" s="17">
-        <v>150499</v>
-      </c>
-      <c r="F21" s="17">
-        <v>152909</v>
-      </c>
-      <c r="G21" s="17">
-        <v>151769</v>
-      </c>
-      <c r="H21" s="17">
-        <v>152397</v>
-      </c>
-      <c r="I21" s="17">
-        <v>152103</v>
-      </c>
-      <c r="J21" s="17">
-        <v>152577</v>
-      </c>
-      <c r="K21" s="17">
-        <v>152874</v>
-      </c>
-      <c r="L21" s="17">
-        <v>153703</v>
-      </c>
-      <c r="M21" s="21">
-        <v>156134</v>
-      </c>
-      <c r="N21" s="21">
-        <v>158524</v>
-      </c>
-      <c r="O21" s="37">
-        <v>159072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="L20" s="28">
+        <v>2022</v>
+      </c>
+      <c r="M20" s="28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="31">
+        <v>121186</v>
+      </c>
+      <c r="C21" s="31">
+        <v>120778</v>
+      </c>
+      <c r="D21" s="31">
+        <v>121778</v>
+      </c>
+      <c r="E21" s="31">
+        <v>122239</v>
+      </c>
+      <c r="F21" s="31">
+        <v>122829</v>
+      </c>
+      <c r="G21" s="31">
+        <v>123578</v>
+      </c>
+      <c r="H21" s="31">
+        <v>124692</v>
+      </c>
+      <c r="I21" s="31">
+        <v>126296</v>
+      </c>
+      <c r="J21" s="31">
+        <v>128609</v>
+      </c>
+      <c r="K21" s="31">
+        <v>129046</v>
+      </c>
+      <c r="L21" s="31">
+        <v>129385</v>
+      </c>
+      <c r="M21" s="31">
+        <v>132290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="32">
+        <v>31723</v>
+      </c>
+      <c r="C22" s="32">
+        <v>30991</v>
+      </c>
+      <c r="D22" s="32">
+        <v>30619</v>
+      </c>
+      <c r="E22" s="32">
+        <v>29864</v>
+      </c>
+      <c r="F22" s="32">
+        <v>29748</v>
+      </c>
+      <c r="G22" s="32">
+        <v>29296</v>
+      </c>
+      <c r="H22" s="32">
+        <v>29011</v>
+      </c>
+      <c r="I22" s="32">
+        <v>29838</v>
+      </c>
+      <c r="J22" s="32">
+        <v>29915</v>
+      </c>
+      <c r="K22" s="32">
+        <v>30026</v>
+      </c>
+      <c r="L22" s="32">
+        <v>29568</v>
+      </c>
+      <c r="M22" s="32">
+        <v>29526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
